--- a/social/google_trends/google_trends_manual.xlsx
+++ b/social/google_trends/google_trends_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suramericana-my.sharepoint.com/personal/dgutierrezv_sura_com/Documents/Documents/GitHub/macro/social/google_trends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_23F921ED7ADB0A0B4D2C4C26056C19475B6673B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B40B470-6B4F-4365-B42A-0060C6292A1D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_23F921ED7ADB0A0B4D2C4C26056C19475B6673B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C09DB9E-3231-4967-AA54-AEA0832EBE7A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="W49" sqref="W49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
